--- a/data/trans_dic/P75-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P75-Estudios-trans_dic.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>20,73; 26,37</t>
+          <t>20,64; 26,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14,21; 19,63</t>
+          <t>14,23; 19,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>19,94; 24,71</t>
+          <t>19,88; 24,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,79; 17,79</t>
+          <t>12,89; 17,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20,88; 24,56</t>
+          <t>20,89; 24,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,06; 17,67</t>
+          <t>14,26; 17,9</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>26,04; 30,35</t>
+          <t>26,01; 30,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,49; 15,58</t>
+          <t>12,53; 15,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>28,13; 32,62</t>
+          <t>28,41; 32,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,41; 16,62</t>
+          <t>13,28; 16,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>27,83; 30,86</t>
+          <t>27,79; 30,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>13,31; 15,54</t>
+          <t>13,46; 15,56</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>20,58; 28,7</t>
+          <t>20,73; 28,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,88; 13,6</t>
+          <t>8,31; 13,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>23,23; 32,27</t>
+          <t>23,19; 31,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,66; 16,83</t>
+          <t>10,94; 16,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>23,15; 29,11</t>
+          <t>22,71; 29,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,13; 14,22</t>
+          <t>10,2; 14,35</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>24,81; 27,8</t>
+          <t>24,84; 27,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,96; 15,39</t>
+          <t>12,97; 15,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>25,42; 28,49</t>
+          <t>25,41; 28,58</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,69; 16,03</t>
+          <t>13,59; 16,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>25,53; 27,7</t>
+          <t>25,51; 27,78</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,63; 15,26</t>
+          <t>13,62; 15,34</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P75-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P75-Estudios-trans_dic.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>20,64; 26,48</t>
+          <t>20,8; 26,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14,23; 19,73</t>
+          <t>14,47; 19,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>19,88; 24,4</t>
+          <t>19,6; 24,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,89; 17,56</t>
+          <t>13,0; 17,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20,89; 24,54</t>
+          <t>20,97; 24,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,26; 17,9</t>
+          <t>14,31; 17,74</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>26,01; 30,34</t>
+          <t>26,24; 30,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,53; 15,53</t>
+          <t>12,4; 15,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>28,41; 32,84</t>
+          <t>28,23; 33,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,28; 16,42</t>
+          <t>13,53; 16,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>27,79; 30,89</t>
+          <t>27,56; 30,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>13,46; 15,56</t>
+          <t>13,34; 15,65</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>20,73; 28,89</t>
+          <t>20,37; 29,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,31; 13,6</t>
+          <t>8,09; 13,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>23,19; 31,99</t>
+          <t>23,23; 32,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,94; 16,81</t>
+          <t>10,75; 16,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>22,71; 29,03</t>
+          <t>23,14; 29,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,2; 14,35</t>
+          <t>10,13; 14,3</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>24,84; 27,99</t>
+          <t>24,78; 28,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,97; 15,27</t>
+          <t>12,88; 15,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>25,41; 28,58</t>
+          <t>25,46; 28,5</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,59; 16,17</t>
+          <t>13,73; 16,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>25,51; 27,78</t>
+          <t>25,5; 27,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,62; 15,34</t>
+          <t>13,63; 15,35</t>
         </is>
       </c>
     </row>
